--- a/target/classes/ticket/excel/ticket_template - backup.xlsx
+++ b/target/classes/ticket/excel/ticket_template - backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDAD48-4C4F-4556-87F8-45861A35B861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48F0DB-FEAB-460E-BD88-FA3FE16B73EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,48 +39,207 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="E13")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F94CA481-DB1E-4259-B088-7B59AFDF733E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(lastCell="E13" items="descrizioni" var="descrizione" direction="DOWN")
+          <t>jx:area(lastCell="AC14")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{8BE7F819-EEB0-49BB-9EA2-7694B8BD00C6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="E14" items="daAssegnare" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{D058E339-8087-4DD2-81DE-882E1A2DA089}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:image(lastCell="A5" src="static_image" imageType="PNG")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{510602F7-8265-45BB-9E6D-90C873599C68}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="D7" src="user_ph" imageType="PNG")</t>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{B45BEBBF-67B4-40AE-9CCE-7848CE7267BB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="K14" items="assegnato" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{D9577F8E-5879-42C4-86E5-6EE853E4DA9F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="Q14" items="inCorso" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{8E1E2210-8051-42EE-95F8-C94F4D5E2CF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="W14" items="daTestare" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{F94CA481-DB1E-4259-B088-7B59AFDF733E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(lastCell="AC14" items="daRilasciare" var="entry" direction="DOWN")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{7A210D83-3382-460A-8405-50680329B020}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="A6" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{C8C0E1BC-6E24-40F6-86F1-CFA78FAF621F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="G6" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{EC59CE83-7265-4515-A225-768B7BDB9923}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="M6" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{D773BEC2-28BC-477C-AD6A-7A6162299C53}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="S6" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="Y6" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{070BE882-A48A-4710-9F9D-C4459B46CCAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="D8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{72D467D0-A480-4F72-A0B9-6B877F1B3E54}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="J8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{8DC318DC-EDF5-4735-BA1A-391A3D7B6640}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="P8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{D06FA38A-1E79-4E3A-993F-4D1CA6E25605}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="V8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB6" authorId="0" shapeId="0" xr:uid="{510602F7-8265-45BB-9E6D-90C873599C68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="AB8" src="user_ph" imageType="PNG")</t>
         </r>
       </text>
     </comment>
@@ -89,22 +248,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Ticket Demo</t>
   </si>
   <si>
-    <t>${descrizione}</t>
+    <t>${entry.descrizione}</t>
   </si>
   <si>
-    <t>${utente}</t>
+    <t>${entry.utente}</t>
+  </si>
+  <si>
+    <t>Da rilasciare:</t>
+  </si>
+  <si>
+    <t>${entry.urgenza}</t>
+  </si>
+  <si>
+    <t>${entry.percentuale}</t>
+  </si>
+  <si>
+    <t>Da testare:</t>
+  </si>
+  <si>
+    <t>In corso:</t>
+  </si>
+  <si>
+    <t>Assegnato:</t>
+  </si>
+  <si>
+    <t>Da assegnare:</t>
+  </si>
+  <si>
+    <t>Priorità</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +305,31 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,18 +344,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -163,11 +377,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -176,7 +390,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -184,17 +398,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top/>
@@ -204,7 +418,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
@@ -212,12 +426,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -226,18 +440,55 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -245,20 +496,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,92 +823,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="27" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="4.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="27" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="Y11" s="6"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="N5:O7"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B5 B12:B1048576 B8:B10">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{292D74C2-A63F-4756-A419-FD3786D80770}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5 B12 B8:B10">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FB6520F-7E7C-4D4D-B07E-0DF1DD90D4CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B5 B12 B8:B10">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC9A3D09-A625-4D6A-A6F2-65A1EEB245B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H10 H12:H1048576">
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C94A2681-2C65-41DA-9F26-47E403996E7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10 H12">
+    <cfRule type="dataBar" priority="70">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0C6481F-8E25-4932-8F2E-458043B4D79E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10 H12">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N5 N12 N8:N10">
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T10 T12">
+    <cfRule type="dataBar" priority="119">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C86F085-A0EF-4F51-A923-104D16E54C83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T10 T12:T1048576 N1:N5 N12:N1048576 Z1:Z10 Z12:Z1048576 N8:N10">
+    <cfRule type="dataBar" priority="130">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03E6A84F-6B00-426F-8C08-7E917B38CF90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z10 Z12 B1:B2 B13:B1048576">
+    <cfRule type="dataBar" priority="138">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5580873E-0864-40C1-B63B-66184C90568C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z10 Z12 H1:H2 H13:H1048576">
+    <cfRule type="dataBar" priority="142">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71EA1693-A780-4AEE-A440-B49829A87B25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{292D74C2-A63F-4756-A419-FD3786D80770}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B5 B12:B1048576 B8:B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FB6520F-7E7C-4D4D-B07E-0DF1DD90D4CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4:B5 B12 B8:B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC9A3D09-A625-4D6A-A6F2-65A1EEB245B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B5 B12 B8:B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C94A2681-2C65-41DA-9F26-47E403996E7B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H10 H12:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0C6481F-8E25-4932-8F2E-458043B4D79E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:H10 H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3:H10 H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N4:N5 N12 N8:N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C86F085-A0EF-4F51-A923-104D16E54C83}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T4:T10 T12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03E6A84F-6B00-426F-8C08-7E917B38CF90}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T1:T10 T12:T1048576 N1:N5 N12:N1048576 Z1:Z10 Z12:Z1048576 N8:N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5580873E-0864-40C1-B63B-66184C90568C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z3:Z10 Z12 B1:B2 B13:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71EA1693-A780-4AEE-A440-B49829A87B25}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z3:Z10 Z12 H1:H2 H13:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/target/classes/ticket/excel/ticket_template - backup.xlsx
+++ b/target/classes/ticket/excel/ticket_template - backup.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48F0DB-FEAB-460E-BD88-FA3FE16B73EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68A3BE6-8BA7-492B-8763-413D41FA755D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3885" windowWidth="21555" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="AC14")</t>
+          <t>jx:area(lastCell="AC15")</t>
         </r>
       </text>
     </comment>
@@ -52,8 +58,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="E14" items="daAssegnare" var="entry" direction="DOWN")
-</t>
+          <t>jx:each(lastCell="E15" items="daAssegnare" var="entry" direction="DOWN")</t>
         </r>
       </text>
     </comment>
@@ -66,7 +71,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="K14" items="assegnato" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="K15" items="assegnato" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
@@ -80,7 +85,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="Q14" items="inCorso" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="Q15" items="inCorso" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
@@ -94,7 +99,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="W14" items="daTestare" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="W15" items="daTestare" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
@@ -108,12 +113,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(lastCell="AC14" items="daRilasciare" var="entry" direction="DOWN")
+          <t xml:space="preserve">jx:each(lastCell="AC15" items="daRilasciare" var="entry" direction="DOWN")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{7A210D83-3382-460A-8405-50680329B020}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7A210D83-3382-460A-8405-50680329B020}">
       <text>
         <r>
           <rPr>
@@ -122,59 +127,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:image(lastCell="A6" src="static_image" imageType="PNG")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{C8C0E1BC-6E24-40F6-86F1-CFA78FAF621F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="G6" src="static_image" imageType="PNG")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{EC59CE83-7265-4515-A225-768B7BDB9923}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="M6" src="static_image" imageType="PNG")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{D773BEC2-28BC-477C-AD6A-7A6162299C53}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="S6" src="static_image" imageType="PNG")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:image(lastCell="Y6" src="static_image" imageType="PNG")</t>
+          <t>jx:image(lastCell="A7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
@@ -191,6 +144,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{C8C0E1BC-6E24-40F6-86F1-CFA78FAF621F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="G7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J6" authorId="0" shapeId="0" xr:uid="{72D467D0-A480-4F72-A0B9-6B877F1B3E54}">
       <text>
         <r>
@@ -201,6 +167,19 @@
             <family val="2"/>
           </rPr>
           <t>jx:image(lastCell="J8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{EC59CE83-7265-4515-A225-768B7BDB9923}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="M7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
@@ -217,6 +196,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{D773BEC2-28BC-477C-AD6A-7A6162299C53}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="S7" src="static_image" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V6" authorId="0" shapeId="0" xr:uid="{D06FA38A-1E79-4E3A-993F-4D1CA6E25605}">
       <text>
         <r>
@@ -227,6 +219,19 @@
             <family val="2"/>
           </rPr>
           <t>jx:image(lastCell="V8" src="user_ph" imageType="PNG")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0" shapeId="0" xr:uid="{AEAB77C4-6E74-43A7-929D-B9757050967F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:image(lastCell="Y7" src="static_image" imageType="PNG")</t>
         </r>
       </text>
     </comment>
@@ -248,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Ticket Demo</t>
   </si>
@@ -282,12 +287,21 @@
   <si>
     <t>Priorità</t>
   </si>
+  <si>
+    <t>Scadenza</t>
+  </si>
+  <si>
+    <t>${entry.scadenza}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="##\%"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,31 +319,31 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Lato UI"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Lato UI"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Lato UI"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Lato UI"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Lato UI"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,12 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -455,94 +463,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,86 +794,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="1" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="27" style="1" customWidth="1"/>
-    <col min="21" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="4.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="27" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27" style="2" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27" style="2" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="4.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="27" style="2" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="4.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="27" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:29" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:29">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
+    <row r="4" spans="1:29" ht="9" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -914,281 +873,350 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:29" ht="6" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="11"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="11"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="11"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="11"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="11"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="11"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="11"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="11"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="11"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="11"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="11"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="17"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="Y11" s="6"/>
+    <row r="11" spans="1:29">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="11"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="11"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="AC11" s="11"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:29">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="21"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
+    </row>
+    <row r="13" spans="1:29" ht="15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21" t="s">
+      <c r="C13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21" t="s">
+      <c r="I13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31" t="s">
+      <c r="O13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="7" t="s">
+      <c r="U13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AA13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="27"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="N5:O7"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C9:E9"/>
+  <mergeCells count="9">
+    <mergeCell ref="Z6:AA8"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="N6:O8"/>
+    <mergeCell ref="T6:U8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B5 B12:B1048576 B8:B10">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="B1:B4 B9 B6 B13:B1048576 B11">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1201,8 +1229,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B12 B8:B10">
-    <cfRule type="dataBar" priority="40">
+  <conditionalFormatting sqref="B4 B13 B6 B9 B11">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1215,8 +1243,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B5 B12 B8:B10">
-    <cfRule type="dataBar" priority="42">
+  <conditionalFormatting sqref="B3:B4 B13 B6 B9 B11">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1229,8 +1257,92 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H10 H12:H1048576">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="H4 H13 H9 H11">
+    <cfRule type="dataBar" priority="104">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0C6481F-8E25-4932-8F2E-458043B4D79E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4 H13 H9 H11">
+    <cfRule type="dataBar" priority="106">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4 N13 N9 N11">
+    <cfRule type="dataBar" priority="130">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13 T4 T9:T11">
+    <cfRule type="dataBar" priority="153">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C86F085-A0EF-4F51-A923-104D16E54C83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T4 N9 T13:T1048576 N1:N4 N13:N1048576 Z1:Z4 Z9:Z11 Z13:Z1048576 N11 T9:T11">
+    <cfRule type="dataBar" priority="201">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03E6A84F-6B00-426F-8C08-7E917B38CF90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z4 Z13 Z9:Z11 B1:B2 B14:B1048576">
+    <cfRule type="dataBar" priority="214">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5580873E-0864-40C1-B63B-66184C90568C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H4 H9 H13:H1048576 H11">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1243,92 +1355,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10 H12">
-    <cfRule type="dataBar" priority="70">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C0C6481F-8E25-4932-8F2E-458043B4D79E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10 H12">
-    <cfRule type="dataBar" priority="72">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N5 N12 N8:N10">
-    <cfRule type="dataBar" priority="96">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T10 T12">
-    <cfRule type="dataBar" priority="119">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2C86F085-A0EF-4F51-A923-104D16E54C83}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T10 T12:T1048576 N1:N5 N12:N1048576 Z1:Z10 Z12:Z1048576 N8:N10">
-    <cfRule type="dataBar" priority="130">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03E6A84F-6B00-426F-8C08-7E917B38CF90}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z10 Z12 B1:B2 B13:B1048576">
-    <cfRule type="dataBar" priority="138">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5580873E-0864-40C1-B63B-66184C90568C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z10 Z12 H1:H2 H13:H1048576">
-    <cfRule type="dataBar" priority="142">
+  <conditionalFormatting sqref="Z3:Z4 Z13 Z9:Z11 H1:H2 H14:H1048576">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1337,6 +1365,328 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{71EA1693-A780-4AEE-A440-B49829A87B25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7336A9D4-5D73-469C-98D2-6C14967FE070}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FE6F0EC-340B-4062-A4B3-4319FD4A477C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01476CE9-C95E-4AB3-8FD1-E8BBFC4E74B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66CCEAEB-2C0A-4DEA-8A2E-0D232B8A019B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10E09E2B-ED6A-467F-A307-4CE8E5985EDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{918263AF-E8B7-48C7-9D4E-009DD3D4E58E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1E8B1750-AFAB-43B9-ADE0-A26B224F351F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09DB2C48-CBEF-470C-9E72-4F8E2A01D69F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A1AED680-BF06-45B4-BA1F-F48FECF3DD4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8588181-C99C-4C32-8FC5-CFE782864D88}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CD6E14E6-4274-40BD-94B8-E073D018BF98}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F97C138-7E9D-4AA0-9128-99AD05A7BA90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3FAC67B1-B696-4E51-A1BF-9AB2152F92D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C30EA75D-F2DA-4578-842E-A9EC4CC79003}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B0A1E28-3614-4720-B87F-966D4F499711}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D4177E5-D34C-4FB0-9E2C-1A957CBF90D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C2A2C4A-6BE3-4CA6-ACBD-899468A633E5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0174BB0-F100-49D4-BD32-9DF44C3CB71C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B55B6274-DF24-4EF6-B38E-E98AF0BB113D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4647EEE2-405B-4D6F-B2AF-E390C4E9464E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68C23831-572F-48F2-ACD9-8AA9F13279FF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8952482A-D9B4-4731-AE47-DC70FF76F34A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F7AD1F7-9E39-461F-A02E-462C98A08F61}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1356,7 +1706,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B5 B12:B1048576 B8:B10</xm:sqref>
+          <xm:sqref>B1:B4 B9 B6 B13:B1048576 B11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5FB6520F-7E7C-4D4D-B07E-0DF1DD90D4CE}">
@@ -1367,7 +1717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B4:B5 B12 B8:B10</xm:sqref>
+          <xm:sqref>B4 B13 B6 B9 B11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC9A3D09-A625-4D6A-A6F2-65A1EEB245B6}">
@@ -1378,7 +1728,73 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B3:B5 B12 B8:B10</xm:sqref>
+          <xm:sqref>B3:B4 B13 B6 B9 B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0C6481F-8E25-4932-8F2E-458043B4D79E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4 H13 H9 H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3:H4 H13 H9 H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N4 N13 N9 N11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C86F085-A0EF-4F51-A923-104D16E54C83}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T13 T4 T9:T11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03E6A84F-6B00-426F-8C08-7E917B38CF90}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T1:T4 N9 T13:T1048576 N1:N4 N13:N1048576 Z1:Z4 Z9:Z11 Z13:Z1048576 N11 T9:T11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5580873E-0864-40C1-B63B-66184C90568C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z3:Z4 Z13 Z9:Z11 B1:B2 B14:B1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C94A2681-2C65-41DA-9F26-47E403996E7B}">
@@ -1389,73 +1805,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:H10 H12:H1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C0C6481F-8E25-4932-8F2E-458043B4D79E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H4:H10 H12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37FA7251-7EF4-426E-9DDB-EE5BD89EEE79}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3:H10 H12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{950B3EF7-A30E-4013-A2EB-C7D1383E98A5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N4:N5 N12 N8:N10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2C86F085-A0EF-4F51-A923-104D16E54C83}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T4:T10 T12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03E6A84F-6B00-426F-8C08-7E917B38CF90}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T1:T10 T12:T1048576 N1:N5 N12:N1048576 Z1:Z10 Z12:Z1048576 N8:N10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5580873E-0864-40C1-B63B-66184C90568C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Z3:Z10 Z12 B1:B2 B13:B1048576</xm:sqref>
+          <xm:sqref>H1:H4 H9 H13:H1048576 H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{71EA1693-A780-4AEE-A440-B49829A87B25}">
@@ -1466,7 +1816,260 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:Z10 Z12 H1:H2 H13:H1048576</xm:sqref>
+          <xm:sqref>Z3:Z4 Z13 Z9:Z11 H1:H2 H14:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7336A9D4-5D73-469C-98D2-6C14967FE070}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FE6F0EC-340B-4062-A4B3-4319FD4A477C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01476CE9-C95E-4AB3-8FD1-E8BBFC4E74B4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66CCEAEB-2C0A-4DEA-8A2E-0D232B8A019B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10E09E2B-ED6A-467F-A307-4CE8E5985EDA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{918263AF-E8B7-48C7-9D4E-009DD3D4E58E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1E8B1750-AFAB-43B9-ADE0-A26B224F351F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09DB2C48-CBEF-470C-9E72-4F8E2A01D69F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A1AED680-BF06-45B4-BA1F-F48FECF3DD4E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8588181-C99C-4C32-8FC5-CFE782864D88}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD6E14E6-4274-40BD-94B8-E073D018BF98}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F97C138-7E9D-4AA0-9128-99AD05A7BA90}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3FAC67B1-B696-4E51-A1BF-9AB2152F92D2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C30EA75D-F2DA-4578-842E-A9EC4CC79003}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B0A1E28-3614-4720-B87F-966D4F499711}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D4177E5-D34C-4FB0-9E2C-1A957CBF90D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C2A2C4A-6BE3-4CA6-ACBD-899468A633E5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0174BB0-F100-49D4-BD32-9DF44C3CB71C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B55B6274-DF24-4EF6-B38E-E98AF0BB113D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4647EEE2-405B-4D6F-B2AF-E390C4E9464E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68C23831-572F-48F2-ACD9-8AA9F13279FF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8952482A-D9B4-4731-AE47-DC70FF76F34A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F7AD1F7-9E39-461F-A02E-462C98A08F61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/target/classes/ticket/excel/ticket_template - backup.xlsx
+++ b/target/classes/ticket/excel/ticket_template - backup.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{497F4014-E9A5-4B25-8036-F8F54CFD54A8}">
